--- a/Literature_search/2016-2017.xlsx
+++ b/Literature_search/2016-2017.xlsx
@@ -24,8 +24,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+7th grade</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+also had some anxiety, etc. questionnaires that are not relevant here
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+8th grade</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+also had some anxiety, etc. questionnaires that are not relevant here
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -1077,6 +1185,210 @@
   </si>
   <si>
     <r>
+      <t>Grossman, I., &amp; Rajan, R. (2017). The effect of simultaneous text on the recall of noise-degraded speech. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Experimental Psychology: Human Perception and Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5), 986.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kou, S., McClelland, A., &amp; Furnham, A. (2017). The effect of background music and noise on the cognitive test performance of Chinese introverts and extraverts. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Psychology of Music</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 0305735617704300.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Liu, T., Lin, C. C., Huang, K. C., &amp; Chen, Y. C. (2017). Effects of noise type, noise intensity, and illumination intensity on reading performance. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied Acoustics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 70-74.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sukowski, H., &amp; Romanus, E. (2016, September). Effects of background speech on reading performance in adults. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceedings of Meetings on Acoustics 22ICA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Vol. 28, No. 1, p. 050002). ASA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wendt, D., Dau, T., &amp; Hjortkjær, J. (2016). Impact of background noise and sentence complexity on processing demands during sentence comprehension. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frontiers in psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yan, G., Meng, Z., Liu, N., He, L., &amp; Paterson, K. B. (2017). Effects of Irrelevant Background Speech on Eye Movements during Reading. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Quarterly Journal of Experimental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, (just-accepted), 1-20.</t>
+    </r>
+  </si>
+  <si>
+    <t>Included?</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Reason for exclusion</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Although students were tested on more than one occasion, the exposure to music occurred only during the actual testing. Therefore, this is not an intervention study; it still meets inclusion criteria</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2 (background sound: silence vs classical music) x grade (7th, 8th)</t>
+  </si>
+  <si>
+    <r>
       <t>Falcon, E. (2017). </t>
     </r>
     <r>
@@ -1094,210 +1406,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> (Doctoral dissertation, St. Thomas University).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Grossman, I., &amp; Rajan, R. (2017). The effect of simultaneous text on the recall of noise-degraded speech. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Journal of Experimental Psychology: Human Perception and Performance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(5), 986.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kou, S., McClelland, A., &amp; Furnham, A. (2017). The effect of background music and noise on the cognitive test performance of Chinese introverts and extraverts. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Psychology of Music</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 0305735617704300.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Liu, T., Lin, C. C., Huang, K. C., &amp; Chen, Y. C. (2017). Effects of noise type, noise intensity, and illumination intensity on reading performance. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Applied Acoustics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, 70-74.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sukowski, H., &amp; Romanus, E. (2016, September). Effects of background speech on reading performance in adults. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceedings of Meetings on Acoustics 22ICA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> (Vol. 28, No. 1, p. 050002). ASA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Wendt, D., Dau, T., &amp; Hjortkjær, J. (2016). Impact of background noise and sentence complexity on processing demands during sentence comprehension. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Frontiers in psychology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yan, G., Meng, Z., Liu, N., He, L., &amp; Paterson, K. B. (2017). Effects of Irrelevant Background Speech on Eye Movements during Reading. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Quarterly Journal of Experimental Psychology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, (just-accepted), 1-20.</t>
-    </r>
-  </si>
-  <si>
-    <t>Included?</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Reason for exclusion</t>
-  </si>
-  <si>
-    <t>Comments</t>
+      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sample 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Falcon, E. (2017). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The relationship between background classical music and reading comprehension on seventh and eighth grade students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sample 2</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background sound: silence, liked music, disliked music)</t>
+  </si>
+  <si>
+    <t>Time taken to complete task does not constitute reading speed per se because it also includes the time taken to answer the questions; not coded</t>
+  </si>
+  <si>
+    <t>3 (background sound: silence, office noise, pop music)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,6 +1516,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1383,7 +1581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1423,12 +1621,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2860,24 +3063,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="87" style="6" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -2889,91 +3093,117 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>20</v>
+      <c r="B3" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>57</v>
+      <c r="B4" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>59</v>
+      <c r="B6" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>60</v>
+      <c r="B7" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2981,15 +3211,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2997,12 +3227,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>62</v>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
@@ -3012,19 +3240,14 @@
       <c r="F9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -3032,31 +3255,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>63</v>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>64</v>
+      <c r="G11" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -3064,15 +3286,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>65</v>
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3080,7 +3300,27 @@
         <v>38</v>
       </c>
     </row>
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A3:G14">
+    <sortCondition ref="A3:A14"/>
+    <sortCondition ref="B3:B14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Literature_search/2016-2017.xlsx
+++ b/Literature_search/2016-2017.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
@@ -128,12 +128,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+50 vs 64 dba in Exp2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -1307,12 +1331,140 @@
   </si>
   <si>
     <r>
+      <t>Yan, G., Meng, Z., Liu, N., He, L., &amp; Paterson, K. B. (2017). Effects of Irrelevant Background Speech on Eye Movements during Reading. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Quarterly Journal of Experimental Psychology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, (just-accepted), 1-20.</t>
+    </r>
+  </si>
+  <si>
+    <t>Included?</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Reason for exclusion</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Although students were tested on more than one occasion, the exposure to music occurred only during the actual testing. Therefore, this is not an intervention study; it still meets inclusion criteria</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2 (background sound: silence vs classical music) x grade (7th, 8th)</t>
+  </si>
+  <si>
+    <r>
+      <t>Falcon, E. (2017). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The relationship between background classical music and reading comprehension on seventh and eighth grade students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sample 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Falcon, E. (2017). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The relationship between background classical music and reading comprehension on seventh and eighth grade students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sample 2</t>
+    </r>
+  </si>
+  <si>
+    <t>3 (background sound: silence, liked music, disliked music)</t>
+  </si>
+  <si>
+    <t>Time taken to complete task does not constitute reading speed per se because it also includes the time taken to answer the questions; not coded</t>
+  </si>
+  <si>
+    <t>3 (background sound: silence, office noise, pop music)</t>
+  </si>
+  <si>
+    <t>3 (background sound: factory noise, classical music, pop music)x  3 (illumination: 200lx, 600lx, 1000lx) x (sound intensity: 45, 65, 85 dba)</t>
+  </si>
+  <si>
+    <t>no silence control</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2 (background noise level: 50, 70 dba)</t>
+  </si>
+  <si>
+    <r>
       <t>Wendt, D., Dau, T., &amp; Hjortkjær, J. (2016). Impact of background noise and sentence complexity on processing demands during sentence comprehension. </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1320,7 +1472,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1329,7 +1483,9 @@
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1337,126 +1493,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Yan, G., Meng, Z., Liu, N., He, L., &amp; Paterson, K. B. (2017). Effects of Irrelevant Background Speech on Eye Movements during Reading. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The Quarterly Journal of Experimental Psychology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, (just-accepted), 1-20.</t>
-    </r>
-  </si>
-  <si>
-    <t>Included?</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Reason for exclusion</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Although students were tested on more than one occasion, the exposure to music occurred only during the actual testing. Therefore, this is not an intervention study; it still meets inclusion criteria</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>2 (background sound: silence vs classical music) x grade (7th, 8th)</t>
-  </si>
-  <si>
-    <r>
-      <t>Falcon, E. (2017). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The relationship between background classical music and reading comprehension on seventh and eighth grade students</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sample 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Falcon, E. (2017). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The relationship between background classical music and reading comprehension on seventh and eighth grade students</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Doctoral dissertation, St. Thomas University)., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sample 2</t>
-    </r>
-  </si>
-  <si>
-    <t>3 (background sound: silence, liked music, disliked music)</t>
-  </si>
-  <si>
-    <t>Time taken to complete task does not constitute reading speed per se because it also includes the time taken to answer the questions; not coded</t>
-  </si>
-  <si>
-    <t>3 (background sound: silence, office noise, pop music)</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1593,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1568,6 +1612,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1581,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1632,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2696,7 +2749,7 @@
   <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,14 +3054,14 @@
       <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
+      <c r="B21" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -3059,15 +3112,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3129,7 @@
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="72.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="39.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
@@ -3093,16 +3147,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,19 +3164,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>38</v>
@@ -3133,19 +3187,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>38</v>
@@ -3162,13 +3216,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>75</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>38</v>
@@ -3185,55 +3239,65 @@
         <v>13</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="F7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>3</v>
+      <c r="B8" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
+      <c r="F8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="17" t="s">
-        <v>58</v>
+      <c r="B9" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -3255,22 +3319,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="17" t="s">
-        <v>61</v>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:7" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -3286,13 +3347,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3300,24 +3361,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A3:G14">
-    <sortCondition ref="A3:A14"/>
-    <sortCondition ref="B3:B14"/>
+  <sortState ref="A3:G13">
+    <sortCondition ref="A3:A13"/>
+    <sortCondition ref="B3:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Literature_search/2016-2017.xlsx
+++ b/Literature_search/2016-2017.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -1501,6 +1501,18 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>2 (presentation group: audio, audiovisual) x 2 (sentences: congruent, incongruent) x 2 participants (mono- vs multi-linguals)</t>
+  </si>
+  <si>
+    <t>not a reading task and DV is different compared to other studies</t>
+  </si>
+  <si>
+    <t>2 (background: silence vs meaningful speech)</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
 </sst>
 </file>
@@ -3120,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,35 +3304,51 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20" t="s">
-        <v>57</v>
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
+      <c r="F9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
@@ -3335,13 +3363,13 @@
     </row>
     <row r="12" spans="1:7" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
-        <v>62</v>
+      <c r="B12" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
         <v>38</v>

--- a/Literature_search/2016-2017.xlsx
+++ b/Literature_search/2016-2017.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -1513,6 +1513,21 @@
   </si>
   <si>
     <t>N/a</t>
+  </si>
+  <si>
+    <t>methological issues- sound conditions were not counterbalanced</t>
+  </si>
+  <si>
+    <t>2 (background: silence vs classical music)</t>
+  </si>
+  <si>
+    <t>not possible to calculate effect sizes for reading comprehension from the reported details</t>
+  </si>
+  <si>
+    <t>3 (background sound: silence, meaningful, meaningless) x 2 (target word frequency: high, low)</t>
+  </si>
+  <si>
+    <t>5 (background sound: silence, familiar foreign, unfamiliar foreign, familiar nativa, unfamiliar native music)</t>
   </si>
 </sst>
 </file>
@@ -3132,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3361,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -3355,38 +3370,59 @@
       <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>38</v>
+      <c r="F13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
